--- a/DateBase/orders/Dang Nguyen_2025-4-18.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-4-18.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -604,10 +604,91 @@
       <c r="A21" t="str">
         <v>3</v>
       </c>
+      <c r="C21" t="str">
+        <v>726_鸢尾叶_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F21" t="str">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="C22" t="str">
+        <v>701_小西瓜山货_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F22" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="C23" t="str">
+        <v>503_丁香花 粉_lilac pink_undefined_1bunch</v>
+      </c>
+      <c r="F23" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>4</v>
+      </c>
+      <c r="C24" t="str">
+        <v>388_大丽花_dahlia_undefined_1bunch</v>
+      </c>
+      <c r="F24" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="C25" t="str">
+        <v>388_大丽花_dahlia_undefined_1bunch</v>
+      </c>
+      <c r="F25" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="C26" t="str">
+        <v>656_大丽花 梅根_undefined_undefined_5stems</v>
+      </c>
+      <c r="F26" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="C27" t="str">
+        <v>656_大丽花 梅根_undefined_undefined_5stems</v>
+      </c>
+      <c r="F27" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>5</v>
+      </c>
+      <c r="C28" t="str">
+        <v>646_芍药莎拉_Sarah_undefined_5stems</v>
+      </c>
+      <c r="F28" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="C29" t="str">
+        <v>759_芍药红富士_Kansas_undefined_10stems</v>
+      </c>
+      <c r="F29" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="C30" t="str">
+        <v>506_紫罗兰香槟色_violet champagne_undefined_1bunch</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L21"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L30"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -665,7 +746,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>07201591591516201520351510102011100</v>
+        <v>0720159159151620152035151010201110501510108101010100</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-4-18.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-4-18.xlsx
@@ -685,6 +685,9 @@
       <c r="C30" t="str">
         <v>506_紫罗兰香槟色_violet champagne_undefined_1bunch</v>
       </c>
+      <c r="F30" t="str">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -746,7 +749,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0720159159151620152035151010201110501510108101010100</v>
+        <v>0720159159151620152035151010201110501510108101010101</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-4-18.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-4-18.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:L50"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -686,12 +686,181 @@
         <v>506_紫罗兰香槟色_violet champagne_undefined_1bunch</v>
       </c>
       <c r="F30" t="str">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
         <v>1</v>
+      </c>
+      <c r="C31" t="str">
+        <v>184_微光_shimmer_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F31" t="str">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="C32" t="str">
+        <v>256_奇迹女神_Miracle Goddess_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F32" t="str">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" xml:space="preserve">
+      <c r="C33" t="str" xml:space="preserve">
+        <v xml:space="preserve">508_风铃花白色_Canterbury Bells 
+white_undefined_1bunch</v>
+      </c>
+      <c r="F33" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" xml:space="preserve">
+      <c r="C34" t="str" xml:space="preserve">
+        <v xml:space="preserve">414_风铃花粉色_Canterbury Bells
+pink_undefined_1bunch</v>
+      </c>
+      <c r="F34" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="C35" t="str">
+        <v>424_鼠尾白色_veronica white_undefined_1bunch</v>
+      </c>
+      <c r="F35" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="C36" t="str">
+        <v>492_细米花_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F36" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="C37" t="str">
+        <v>454_蓝星花_tweedia blue_undefined_1bunch</v>
+      </c>
+      <c r="F37" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="C38" t="str">
+        <v>43_拉丝红_Spider Red_Gerbera L._20stems</v>
+      </c>
+      <c r="F38" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="C39" t="str">
+        <v>361_小天使鹅掌芋_Thaumatophyllum xanadu_Thaumatophyllum xanadu_1bunch</v>
+      </c>
+      <c r="F39" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" xml:space="preserve">
+      <c r="C40" t="str" xml:space="preserve">
+        <v xml:space="preserve">510_翠珠白_Didiscus caeruleus 
+white_Trachymene Coerulea_1bunch</v>
+      </c>
+      <c r="F40" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="C41" t="str">
+        <v>602_康乃馨白_white_undefined_20stems</v>
+      </c>
+      <c r="F41" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="C42" t="str">
+        <v>551_铁线莲_Glematis_undefined_1bunch</v>
+      </c>
+      <c r="F42" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>2</v>
+      </c>
+      <c r="C43" t="str">
+        <v>321_雪柳叶_Spiraea  leaves_undefined_1bunch</v>
+      </c>
+      <c r="F43" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="C44" t="str">
+        <v>503_丁香花 粉_lilac pink_undefined_1bunch</v>
+      </c>
+      <c r="F44" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="C45" t="str">
+        <v>701_小西瓜山货_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F45" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="C46" t="str">
+        <v>503_丁香花 粉_lilac pink_undefined_1bunch</v>
+      </c>
+      <c r="F46" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="C47" t="str">
+        <v>403_大飞燕浅蓝色_delphinium light blue_undefined_1bunch</v>
+      </c>
+      <c r="F47" t="str">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="C48" t="str">
+        <v>401_大飞燕白色_delphinium white_undefined_1bunch</v>
+      </c>
+      <c r="F48" t="str">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>3</v>
+      </c>
+      <c r="C49" t="str">
+        <v>633_干花安娜深红_undefined_undefined_1stem</v>
+      </c>
+      <c r="F49" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L30"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L50"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -749,7 +918,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0720159159151620152035151010201110501510108101010101</v>
+        <v>0720159159151620152035151010201110501510108101010101241210101010205515152105551111200</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-4-18.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-4-18.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L50"/>
+  <dimension ref="A1:L58"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -857,10 +857,83 @@
       <c r="A50" t="str">
         <v>4</v>
       </c>
+      <c r="C50" t="str">
+        <v>634_干花安娜香槟_undefined_undefined_1stem</v>
+      </c>
+      <c r="F50" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="C51" t="str">
+        <v>707_永生吊米白_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F51" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="C52" t="str">
+        <v>707_永生吊米白_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F52" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>5</v>
+      </c>
+      <c r="C53" t="str">
+        <v>646_芍药莎拉_Sarah_undefined_5stems</v>
+      </c>
+      <c r="F53" t="str">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="C54" t="str">
+        <v>759_芍药红富士_Kansas_undefined_10stems</v>
+      </c>
+      <c r="F54" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="C55" t="str">
+        <v>657_大丽花 x元素_undefined_undefined_5stems</v>
+      </c>
+      <c r="F55" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="C56" t="str">
+        <v>388_大丽花_dahlia_undefined_1bunch</v>
+      </c>
+      <c r="F56" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="C57" t="str">
+        <v>388_大丽花_dahlia_undefined_1bunch</v>
+      </c>
+      <c r="F57" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="C58" t="str">
+        <v>388_大丽花_dahlia_undefined_1bunch</v>
+      </c>
+      <c r="F58" t="str">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L50"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L58"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -918,7 +991,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0720159159151620152035151010201110501510108101010101241210101010205515152105551111200</v>
+        <v>0720159159151620152035151010201110501510108101010101241210101010205515152105551111201581010055555</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-4-18.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-4-18.xlsx
@@ -993,6 +993,9 @@
       <c r="G2" t="str">
         <v>0720159159151620152035151010201110501510108101010101241210101010205515152105551111201581010055555</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
